--- a/tables/03_output/table3_2020_2021..xlsx
+++ b/tables/03_output/table3_2020_2021..xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Variable</t>
   </si>
@@ -35,15 +35,9 @@
     <t>Percentile_25th</t>
   </si>
   <si>
-    <t>Percentile_50th</t>
-  </si>
-  <si>
     <t>Percentile_75th</t>
   </si>
   <si>
-    <t>Percentile_100th</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -74,34 +68,34 @@
     <t>10</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>pr_edu_inf_25</t>
-  </si>
-  <si>
-    <t>pr_no_bl_mz</t>
-  </si>
-  <si>
-    <t>pr_insu</t>
-  </si>
-  <si>
-    <t>pr_liv_oth_distr</t>
-  </si>
-  <si>
-    <t>pr_edu_oth_distr</t>
-  </si>
-  <si>
-    <t>pr_one_hab</t>
-  </si>
-  <si>
-    <t>INEI_prop_No_techo_concreto</t>
-  </si>
-  <si>
-    <t>pr_obes</t>
-  </si>
-  <si>
-    <t>pr_tos</t>
+    <t>Number of deaths</t>
+  </si>
+  <si>
+    <t>Prp. of  25 year people  with only school completed</t>
+  </si>
+  <si>
+    <t>Prp. of people neither mestizo nor white</t>
+  </si>
+  <si>
+    <t>Prp. of insured people</t>
+  </si>
+  <si>
+    <t>Prp. of people who have moved house</t>
+  </si>
+  <si>
+    <t>Prp. of people with educational centers in another district</t>
+  </si>
+  <si>
+    <t>Prp. of household with only one hab</t>
+  </si>
+  <si>
+    <t>Prp. of households without a concrete roof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prp. of people with obesity </t>
+  </si>
+  <si>
+    <t>Prp. of people with tos</t>
   </si>
 </sst>
 </file>
@@ -178,19 +172,13 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
         <v>2.9</v>
@@ -211,21 +199,15 @@
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J2" t="n">
         <v>2.0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>976.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" t="n">
         <v>0.48</v>
@@ -246,21 +228,15 @@
         <v>0.35</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J3" t="n">
         <v>0.61</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" t="n">
         <v>0.48</v>
@@ -281,21 +257,15 @@
         <v>0.19</v>
       </c>
       <c r="I4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="J4" t="n">
         <v>0.77</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.99</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
         <v>0.81</v>
@@ -316,21 +286,15 @@
         <v>0.75</v>
       </c>
       <c r="I5" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="J5" t="n">
         <v>0.89</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="n">
         <v>0.09</v>
@@ -351,21 +315,15 @@
         <v>0.05</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="J6" t="n">
         <v>0.12</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="n">
         <v>0.13</v>
@@ -386,21 +344,15 @@
         <v>0.07</v>
       </c>
       <c r="I7" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="J7" t="n">
         <v>0.17</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
         <v>0.23</v>
@@ -421,21 +373,15 @@
         <v>0.14</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J8" t="n">
         <v>0.3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" t="n">
         <v>0.84</v>
@@ -456,21 +402,15 @@
         <v>0.78</v>
       </c>
       <c r="I9" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="J9" t="n">
         <v>0.97</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
         <v>0.21</v>
@@ -491,21 +431,15 @@
         <v>0.17</v>
       </c>
       <c r="I10" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="J10" t="n">
         <v>0.24</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
         <v>0.11</v>
@@ -526,13 +460,7 @@
         <v>0.1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="J11" t="n">
         <v>0.12</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.17</v>
       </c>
     </row>
   </sheetData>
